--- a/Data/Tables/Quest.xlsx
+++ b/Data/Tables/Quest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="QuestGroup" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t>任务组ID</t>
   </si>
@@ -102,10 +102,7 @@
     <t>新手关剧情局内任务</t>
   </si>
   <si>
-    <t>QUEST_CATEGORY_GLOBAL</t>
-  </si>
-  <si>
-    <t>QUEST_PICK_RULE_ORDER</t>
+    <t>PickRule_Order</t>
   </si>
   <si>
     <t>10101;</t>
@@ -1295,7 +1292,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1391,11 +1388,11 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1403,19 +1400,19 @@
         <v>10101</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>10002</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1423,19 +1420,19 @@
         <v>10201</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <v>10102</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1443,19 +1440,19 @@
         <v>10301</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>10202</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1463,19 +1460,19 @@
         <v>10401</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" s="3">
         <v>10302</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1483,19 +1480,19 @@
         <v>10501</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>10402</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1503,19 +1500,19 @@
         <v>10601</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" s="3">
         <v>10502</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1523,19 +1520,19 @@
         <v>10701</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>10602</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:11">
@@ -1543,21 +1540,21 @@
         <v>10002</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>10001</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1568,21 +1565,21 @@
         <v>10102</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <v>10101</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -1593,21 +1590,21 @@
         <v>10202</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
       </c>
       <c r="F13" s="4">
         <v>10201</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1618,21 +1615,21 @@
         <v>10302</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
       </c>
       <c r="F14" s="4">
         <v>10301</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1643,21 +1640,21 @@
         <v>10402</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <v>10401</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1668,21 +1665,21 @@
         <v>10502</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
       </c>
       <c r="F16" s="4">
         <v>10501</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1693,21 +1690,21 @@
         <v>10602</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
       </c>
       <c r="F17" s="4">
         <v>10601</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1718,21 +1715,21 @@
         <v>10702</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
+        <v>54</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
       </c>
       <c r="F18" s="4">
         <v>10701</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -1743,16 +1740,16 @@
         <v>10003</v>
       </c>
       <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1760,16 +1757,16 @@
         <v>10103</v>
       </c>
       <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1777,16 +1774,16 @@
         <v>10203</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1794,16 +1791,16 @@
         <v>10303</v>
       </c>
       <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>24</v>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1811,16 +1808,16 @@
         <v>10403</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1828,16 +1825,16 @@
         <v>10503</v>
       </c>
       <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>24</v>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1845,16 +1842,16 @@
         <v>10603</v>
       </c>
       <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1862,16 +1859,16 @@
         <v>10703</v>
       </c>
       <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>24</v>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1879,16 +1876,16 @@
         <v>11000</v>
       </c>
       <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1922,34 +1919,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
-      </c>
-      <c r="J1" t="s">
-        <v>81</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1957,31 +1954,31 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>86</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>87</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>88</v>
-      </c>
-      <c r="I2" t="s">
-        <v>89</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -2001,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2009,13 +2006,13 @@
         <v>10101</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2023,13 +2020,13 @@
         <v>10201</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2037,13 +2034,13 @@
         <v>10301</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2051,13 +2048,13 @@
         <v>10401</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2065,13 +2062,13 @@
         <v>10501</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2079,13 +2076,13 @@
         <v>10601</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2093,13 +2090,13 @@
         <v>10701</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2107,13 +2104,13 @@
         <v>10002</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2121,13 +2118,13 @@
         <v>10102</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2135,13 +2132,13 @@
         <v>10202</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2149,13 +2146,13 @@
         <v>10302</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2163,13 +2160,13 @@
         <v>10402</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2177,13 +2174,13 @@
         <v>10502</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2191,13 +2188,13 @@
         <v>10602</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2205,13 +2202,13 @@
         <v>10702</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2219,13 +2216,13 @@
         <v>10003</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2233,13 +2230,13 @@
         <v>10103</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2247,13 +2244,13 @@
         <v>10203</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2261,13 +2258,13 @@
         <v>10303</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2275,13 +2272,13 @@
         <v>10403</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2289,13 +2286,13 @@
         <v>10503</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2303,13 +2300,13 @@
         <v>10603</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2317,13 +2314,13 @@
         <v>10703</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2331,13 +2328,13 @@
         <v>11000</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
